--- a/biology/Médecine/Joseph_Wolpe/Joseph_Wolpe.xlsx
+++ b/biology/Médecine/Joseph_Wolpe/Joseph_Wolpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Wolpe (20 avril 1915 à Johannesbourg, Afrique du Sud - 4 décembre 1997 à Los Angeles) est un psychiatre américain du béhaviorisme ou comportementalisme, surtout connu pour ses théories et expériences au sujet de ce qui s'appelle maintenant la désensibilisation systématique dans les phobies. Né à Johannesbourg (Afrique du Sud), il a acquis plus tard la citoyenneté américaine. Il a été professeur de la psychiatrie à la Temple University Medical School de Philadelphie en Pennsylvanie de 1965 à 1988.
 </t>
@@ -511,7 +523,9 @@
           <t>Principe de l’inhibition réciproque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wolpe définit le principe d'inhibition réciproque comme l'arrêt des effets d'un stimulus face à un stimulus ayant des effets contraires. Il cherche par ce principe à briser l’association d’un stimulus à une réponse anxieuse. On associe le stimulus à une meilleure réponse, antagoniste à la réponse anxiogène.
 Principe de l’inhibition antagoniste:
@@ -547,7 +561,9 @@
           <t>Désensibilisation systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois choses nécessaires
 Il faut savoir relaxer. On doit pratiquer les exercices de relaxation de détente profonde, musculaire, par images mentales. Avec de la pratique, tous réussissent à apprendre l'auto-relaxation et la visualisation. Exemples: paysages, scènes agréables.
@@ -585,7 +601,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pratique de la thérapie comportementale, J. Wolpe (Masson) 1975</t>
         </is>
